--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -114,7 +114,7 @@
     <t>UAT31230956</t>
   </si>
   <si>
-    <t>UAT31230915</t>
+    <t>UAT31230918</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -114,7 +114,7 @@
     <t>UAT31230956</t>
   </si>
   <si>
-    <t>UAT31230918</t>
+    <t>UAT31230919</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -114,7 +114,7 @@
     <t>UAT31230956</t>
   </si>
   <si>
-    <t>UAT31230919</t>
+    <t>UAT31230921</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -114,7 +114,7 @@
     <t>UAT31230956</t>
   </si>
   <si>
-    <t>UAT31230921</t>
+    <t>UAT31230922</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,7 +650,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DataFiles/excel/Login/LoginDetails.xlsx
+++ b/DataFiles/excel/Login/LoginDetails.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>RunToTest</t>
   </si>
@@ -114,7 +114,25 @@
     <t>UAT31230956</t>
   </si>
   <si>
-    <t>UAT31230922</t>
+    <t>UAT31230936</t>
+  </si>
+  <si>
+    <t>UAT31230937</t>
+  </si>
+  <si>
+    <t>UAT31230938</t>
+  </si>
+  <si>
+    <t>UAT31230939</t>
+  </si>
+  <si>
+    <t>UAT31230940</t>
+  </si>
+  <si>
+    <t>UAT31230941</t>
+  </si>
+  <si>
+    <t>UAT31230942</t>
   </si>
 </sst>
 </file>
@@ -647,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -672,12 +690,78 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
     </row>
